--- a/topics/2022.Fall.SWR302-SWP-FER201M-SWT-PRN.Subjects.xlsx
+++ b/topics/2022.Fall.SWR302-SWP-FER201M-SWT-PRN.Subjects.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -28,7 +29,7 @@
     <t>Actors</t>
   </si>
   <si>
-    <t>Functional requirements</t>
+    <t>@</t>
   </si>
   <si>
     <t>Non-Funtional requirements</t>
@@ -39,7 +40,7 @@
         <rFont val="Calibri, sans-serif"/>
         <b/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="9.0"/>
       </rPr>
       <t>Diamond Shop System</t>
     </r>
@@ -47,7 +48,7 @@
       <rPr>
         <rFont val="Calibri, sans-serif"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý cửa hàng kim cương</t>
@@ -213,7 +214,7 @@
         <color rgb="FF0000FF"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">                &lt;&lt; Giá bán = giá vốn sản phẩm * tỉ lệ áp giá, Giá vốn sản phẩm = tiền kim cương + vỏ kim cương + tiền công&gt;&gt;</t>
+      <t xml:space="preserve">                &lt;&lt;Giá bán = giá vốn sản phẩm * tỉ lệ áp giá, Giá vốn sản phẩm = tiền kim cương + vỏ kim cương + tiền công&gt;&gt;</t>
     </r>
     <r>
       <rPr>
@@ -226,24 +227,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Diamond Assessment System</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
- Phần mềm quản lý giám định kim cương</t>
-    </r>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Guest
@@ -405,7 +389,8 @@
     </r>
   </si>
   <si>
-    <t>Staff
+    <t xml:space="preserve">
+Staff
  Manager
  Admin</t>
   </si>
@@ -514,9 +499,6 @@
     </r>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
     <t>Customer
  Sales Staff
  Design Staff
@@ -742,11 +724,11 @@
 moderator</t>
   </si>
   <si>
-    <t xml:space="preserve">●	Guests: limited access to system features (mobile and web app).
-●	Buyer: person who uses the application to search, view information and buy products and tools from sellers. They can search for products by category or keyword, filter products. In addition, buyers can interact with the product by commenting, contacting the seller, rating and responding to transactions.
-●	Seller: is a person who uses the application to sell their products and goods. They can post product information, manage posts. Additionally, they can interact with customers, view their transaction history and status.
-●	Administrator: a privileged user who can manage the entire system.
-●	Moderator: is the person who has the right to review the product, review violation reports from users, after successfully reviewing the violator will be banned.
+    <t xml:space="preserve">●        Guests: limited access to system features (mobile and web app).
+●        Buyer: person who uses the application to search, view information and buy products and tools from sellers. They can search for products by category or keyword, filter products. In addition, buyers can interact with the product by commenting, contacting the seller, rating and responding to transactions.
+●        Seller: is a person who uses the application to sell their products and goods. They can post product information, manage posts. Additionally, they can interact with customers, view their transaction history and status.
+●        Administrator: a privileged user who can manage the entire system.
+●        Moderator: is the person who has the right to review the product, review violation reports from users, after successfully reviewing the violator will be banned.
 </t>
   </si>
   <si>
@@ -754,19 +736,312 @@
   </si>
   <si>
     <t xml:space="preserve">The website can mainly support:
-•	Real estate owners: who can post their real estate properties to the system and find reliable as well as appropriate agencies or agents to sell their products.
-•	Enterprise Agencies or Individual Agents: to engage in trusty real estate projects that are guaranteed and verified by our system then receive a suitable commission.
+•        Real estate owners: who can post their real estate properties to the system and find reliable as well as appropriate agencies or agents to sell their products.
+•        Enterprise Agencies or Individual Agents: to engage in trusty real estate projects that are guaranteed and verified by our system then receive a suitable commission.
 </t>
   </si>
   <si>
     <t>Pets' services management</t>
+  </si>
+  <si>
+    <t>Guest
+Customer
+Payment System
+Manager
+Staff</t>
+  </si>
+  <si>
+    <t>Vintage Timepiece Evaluation and Trading Platform
+(Vietnamese: Hệ thống hỗ trợ thẩm định, mua bán đồng hồ cũ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b.        Proposed Solutions 
+The primary objective of the "Vintage Timepiece Evaluation and Trading Platform" is to provide a secure, transparent, and efficient environment for the appraisal, sale, and purchase of vintage watches. This platform aims to bridge the gap between watch owners, buyers, and professional appraisers, ensuring the authenticity and fair valuation of items traded
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The "Vintage Timepiece Evaluation and Trading Platform" is an integrated online system designed to facilitate the appraisal, buying, and selling of vintage watches. This Web-based system provides a user-friendly interface that supports various user roles each with tailored functionalities to enhance the trading experience. </t>
+  </si>
+  <si>
+    <t>○        Sellers
+○        Buyers
+○        Appraisers
+○        Administrators
+○        Customer Support Agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○        Sellers
+•        List Items: Upload detailed descriptions and images of vintage watches they wish to sell.
+•        Interact with Appraisers: Receive evaluations and potentially adjust prices based on appraisal outcomes.
+•        Manage Listings: Update information, adjust prices, and remove listings if the item is sold or withdrawn from sale.
+•        Complete Transactions: Engage directly with buyers to finalize sales through the platform’s secure payment systems.
+○        Buyers
+•        Browse Listings: Use various filters and search capabilities to find specific vintage watches.
+•        View Appraisals: Access detailed reports from appraisers regarding the authenticity and value of a watch.
+•        Make Purchases: Engage in purchasing through a secure transaction system that includes escrow services.
+•        Leave Feedback: Provide ratings and reviews for sellers and appraisers, which can help guide future buyers.
+○        Appraisers
+•        Conduct Evaluations: Assess the authenticity, condition, and market value of submitted watches using detailed guidelines and historical data.
+•        Generate Reports: Provide comprehensive appraisal reports that include estimations of value, condition notes, and authenticity verification.
+•        Communicate with Sellers: Offer advice or feedback on watch listings and suggest price adjustments based on market conditions and watch conditions.
+○        Administrators
+•        User Management: Oversee user accounts, including approval of appraisers, conflict resolution between buyers and sellers, and general user support.
+•        Monitor Transactions: Ensure all transactions are conducted fairly and intervene in disputes if necessary.
+•        Maintain System Security: Implement and update security protocols, manage data privacy issues, and handle cybersecurity threats.
+•        Update Platform: Roll out updates for software, manage backend systems, and ensure the platform runs smoothly without disruptions.
+○        Customer Support Agents
+•        Resolve Queries: Provide timely support to users facing issues with the platform, transactions, or account settings.
+•        Feedback Collection: Gather user feedback to inform future updates and improvements in service delivery.
+</t>
+  </si>
+  <si>
+    <t>Intern Management System (Hệ thống quản lý thực tập sinh cho doanh nghiệp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed Solutions:
+It supports scheduling, tailored training programs, real-time performance tracking, and comprehensive analytics. These solutions collectively aim to simplify administrative tasks, improve intern engagement and productivity, and ensure the overall success of the internship program.
+</t>
+  </si>
+  <si>
+    <t>Context: 
+The Intern Management System (IMS) is an advanced cloud-based platform designed to streamline the entire lifecycle of internship management. It supports scheduling, tailored training programs, real-time performance tracking, and comprehensive analytics. IMS enhances communication and efficiency across all users—HR, coordinators, mentors, and interns—making it an ideal solution for optimizing intern productivity and program success in any business.</t>
+  </si>
+  <si>
+    <t>- HR Managers
+- Admin
+- Internship Coordinators
+- Mentors
+- Interns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○        HR Managers
+•        Recruitment Management: Create and manage internship campaigns, from job postings to application collection.
+•        Intern Profile Management: Maintain a database of intern personal information, educational backgrounds, and work histories with advanced search capabilities.
+•        Reporting and Analytics: Generate automatic reports on program effectiveness and intern performance. Utilize analytics tools to identify trends and improve processes.
+○        Internship Coordinators
+•        Interview Scheduling: Automate the scheduling of interviews and send reminders via email or SMS.
+•        Training Program Setup: Design and implement training programs aligned with specific skill development goals.
+•        Performance Tracking: Monitor and evaluate interns' work progress using predefined KPIs and regular assessments.
+○        Mentors
+•        Daily Progress Monitoring: Use the system to log daily activities and provide immediate feedback to interns.
+•        Skill Assessment: Conduct regular assessments to evaluate intern skills and development needs.
+•        Communication Tools: Engage in direct communications with interns for guidance and support through integrated messaging systems.
+○        Interns
+•        Personal Dashboard: Access a personal dashboard to view tasks, schedules, feedback, and educational resources.
+•        Feedback Submission: Provide feedback on training experiences and mentor interactions to help improve the internship program.
+•        Skill Development Tracking: Monitor personal skill development and receive automated suggestions for improvement based on performance data.
+○        Admin
+•        System Configuration and Maintenance: Handle system settings, user permissions, and data security protocols.
+•        Technical Support: Provide technical support to users and troubleshoot system issues.
+</t>
+  </si>
+  <si>
+    <t>Cửa hàng sữa cho mẹ bầu và em bé</t>
+  </si>
+  <si>
+    <t>- Guest
+- Member
+- Staff
+- Admin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">- Guest </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ + Xem thông tin, xem đánh giá, tìm kiếm các sản phẩm về sữa và mua hàng. 
+ + Xem các bài viết về chăm sóc sức khỏe cho mẹ bầu và em bé, mua hàng trực tiếp từ các sản phẩm được gợi ý từ các bài viết.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">- Member 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> + Mua hàng bằng các hình thức chuyển khoản, thanh toán trực tuyến
+ + Sử dụng voucher, tích lũy điểm thành viên, đổi quà hoặc sản phẩm tương ứng từ cửa hàng
+ + Đánh giá, feedback sản phẩm. 
+ + Đăng ký tư vấn chọn và mua sữa online thông qua chức năng chat. 
+ + Đặt hàng trước khi chưa có sẵn sản phẩm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>- Staff</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ + Xác nhận các đơn hàng, quản lý hàng hóa, người dùng, tạo các mã voucher, xử lý report, tracking đơn hàng. 
+ + Quản lý các bài viết.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ + Quản lý account, thống kê doanh thu, sản phẩm...</t>
+    </r>
+  </si>
+  <si>
+    <t>Nền tảng đặt lịch cho phòng khám nha khoa</t>
+  </si>
+  <si>
+    <t>Guest
+Customer
+Dentist
+Clinic Owner
+System Admin</t>
+  </si>
+  <si>
+    <t>Guest:
+- Xem thông tin phòng khám, lịch khám, danh mục dịch vụ. Đăng ký và xác thực thông tin cá nhân để thành customer.
+Customer
+- Đăng ký lịch khám 1 lần. Nhận thông báo nhắc lịch 1 ngày trước ngày khám.
+- Đăng ký lịch khám, điều trị định kỳ (theo lịch điều trị của nha sĩ). VD: đăng ký lịch khám &amp; điều trị niềng răng (mỗi tháng 1 lần trong suốt 12 tháng).
+- Nhận kết quả khám, thông báo về lịch điều trị từ nha sĩ. 
+- Nhắn tin, trao đổi trực tiếp với nha sĩ của phòng khám.
+Dentist:
+- Xem được lịch khám trong tuần của mình.
+- Lên lịch đề xuất lịch khám định kỳ cho bệnh nhân.
+- Gửi kết quả khám lên hệ thống. Xem được hồ sơ khám chửa bệnh của bênh nhận mình đang điều trị.
+- Trao đổi với bệnh nhân thông qua kênh chat của hệ thống.
+Clinic Owner:
+- Đăng ký thông tin phòng khám của mình vào hệ thống. Nhập các thông tin xác thực về phòng khám. 
+- Đăng ký thông tin bác sĩ của phòng khám mình. Tạo tài khoản bác sĩ.
+- Nhập lịch hoạt động của phòng khám. VD: giờ mở cửa, giờ đóng cửa, time slot (time frame) của mỗi lần khám / điều trị. Cụ thể: 1 slot là 45 phút; số bệnh nhân khám cho 1 slot max là 3; số bệnh nhân điều trị cho 1 slot là 1.
+- Quản lý thông tin bệnh nhân, lịch khám, bác sĩ. Quản lý thông tin trao đổi giữ bs và bênh nhân.
+System Admin:
+- Xét duyệt thông tin phòng khám, thông tin bác sĩ.
+- Quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>Nền tảng đặt lịch sân cầu lông</t>
+  </si>
+  <si>
+    <t>Guest
+Customer 
+Court owner
+Staff
+System Admin</t>
+  </si>
+  <si>
+    <t>Guest: 
+- Tìm kiếm thông tin sân dựa trên vị trí, giờ hoạt động, giờ có thể vào chơi.
+- Đăng ký tài khoản, Customer.
+Customer:
+- Đặt lịch chơi. Có 3 loại lịch: lịch cố định (giờ + thứ cố định trong tuần, đặt cho &gt;= 1 tháng); đặt lịch ngày (đặt cho 1 lần chơi); Lịch linh hoạt ( đăng ký tổng số giờ chơi trong 1 tháng, người chơi tự tìm giờ trống &amp; đăng ký như đặt lịch ngày).
+- Check in khi đến sân; 
+- Thanh toán trực tuyến khi đặt lịch. 
+Court Manager:
+- Đăng ký thông tin sân; thông tin tài khoản thanh toán. 
+- Đăng ký thông tin loại hình đặt lịch, time slot (time frame) của sân. Giá cho từng slot ứng với từng cách đặt lịch khác nhau.
+- Quản lý thông tin sân.
+- Quản lý thông tin lịch thi đấu, đăng ký slot cho trường hợp người thuê đến đặt lịch trực tiếp.
+Court Staff: 
+- Thực hiện check in cho customer.
+- Kiểm tra tình hình hoạt động sân.
+System Admin:
+- Quản lý thông tin tài khoản.
+- Quản lý thông tin Sân cầu lông.
+- Đăng ký thông tin sân mới.</t>
+  </si>
+  <si>
+    <t>Game Hub Platform</t>
+  </si>
+  <si>
+    <t>Guest 
+Player
+Game Developer
+Graphic Designer
+System Admin</t>
+  </si>
+  <si>
+    <t>Guest:
+- Xem và chơi thử các mini game (game không cần đăng ký tài khoản, không có leader board)
+- Đăng ký tài khoản player / Deveveloper / Designer.
+- Nhập các thông tin xác thực để trờ thành developer hoặc designer hoặc cả hai.
+Player:
+- Tham gia các game, nhận được điểm thường của từng game. Xem được leader board của từng game.
+- Review chất lượng của từng game.
+- Tích diểm đổi quà đối với game có chính sách tích điểm đổi quà.
+Developer:
+- Sử dung các assets free do designer cung cấp. 
+- Mua các game assets của designer.
+- Đăng ký thông tin game và upload các file game tương ứng.
+- Khai báo thông tin để được cung cấp API cho hệ thống leader board.
+- Khai báo thông tin và đăng ký để được cấp API, SDK, Document cho hệ thống tích điểm đổi quà.
+- Khai báo thông tin và đăng ký để được cấp API, SDK, Document cho hệ thống nạp tiền vào tài khoản game.
+Graphic Designer:
+- Khai báo thông tin tài khoản, thông tin thanh toán của tài khoản designer.
+- Upload các free game assets.
+- Đăng ký và upload asset có phí.
+System Admin:
+- Quản lý thông tin tài khoản. Xét duyệt các yêu cầu đăng ký tài khoản.
+- Quản lý thông tin thanh toán, chi trả cho developer và GD.</t>
+  </si>
+  <si>
+    <t>Phần mềm tổ chức sự kiện có bán vé, buổi buổi seminar.</t>
+  </si>
+  <si>
+    <t>Guest 
+Visitor
+Sponsor
+Event Operator
+Checking Staff</t>
+  </si>
+  <si>
+    <t>Hệ thống quản lý bán vé cho các sự kiện mà bộ môn Biz, Khởi nghiệp của trường FU tổ chức.
+Hổ trợ tổ chức các buổi seminar chuyên ngành, hội thảo do trường / bộ môn tổ chức.
+Mục tiêu:
+Hỗ trợ việc đăng ký, thi phí, check in diễn ra nhanh chóng, có kiểm soát.
+Giúp đơn vị tổ chức quảng bá, tiếp nhận thông tin đăng ký event thay vì sử dụng google form. 
+Giúp đơn vị tổ chức ước lượng số người tham gia. 
+Tưng gian hàng (sponsor) có thể nhanh chóng biết được thông tin khách ghé thăm dựa vào QR code / thẻ sinh viên / thẻ giảng viên.
+Sau event, có thể thống kê, gửi khảo sát đến với người đã tham gia.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -791,15 +1066,37 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -847,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -860,7 +1157,7 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -893,16 +1190,16 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -911,20 +1208,53 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,6 +1265,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1146,10 +1480,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="31.38"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="91.63"/>
-    <col customWidth="1" min="7" max="7" width="28.5"/>
+    <col customWidth="1" min="2" max="2" width="63.63"/>
+    <col customWidth="1" min="3" max="3" width="44.63"/>
+    <col customWidth="1" min="4" max="4" width="21.25"/>
+    <col customWidth="1" min="5" max="5" width="25.13"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="67.25"/>
+    <col customWidth="1" min="7" max="7" width="131.5"/>
+    <col customWidth="1" min="8" max="8" width="28.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1168,10 +1505,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1187,10 +1525,11 @@
       <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -1204,10 +1543,11 @@
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
@@ -1221,10 +1561,11 @@
       <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
@@ -1238,10 +1579,11 @@
       <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
@@ -1251,115 +1593,317 @@
         <v>19</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="77.25" customHeight="1">
       <c r="A8" s="14">
         <v>7.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="14">
         <v>8.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="14">
         <v>9.0</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="14">
         <v>10.0</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12">
       <c r="A12" s="14"/>
       <c r="B12" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="22"/>
     </row>
     <row r="13">
       <c r="B13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="28">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="28">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="31">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="28">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="31">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="28">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="32">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>